--- a/Desktop/Amir/Borang baru Edited/Digestion/Titan/RB & IQC.xlsx
+++ b/Desktop/Amir/Borang baru Edited/Digestion/Titan/RB & IQC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Borang baru Edited\Digestion\Titan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09534DFA-7AB5-4EA4-BBDB-D7181290FC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DC80B-533D-4B96-AC14-84C445350F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t xml:space="preserve">UNIT ANALISIS TRADISIONAL </t>
   </si>
@@ -231,9 +231,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sampel IQC :     Serbuk        Cecair        Pil        Kapsul lembut        Krim/Salap   </t>
-  </si>
-  <si>
     <t>Sampel IQC</t>
   </si>
   <si>
@@ -302,6 +299,153 @@
       <t xml:space="preserve"> ( Kaedah   A / B / C / D )</t>
     </r>
   </si>
+  <si>
+    <t>(16/11/2025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (31/05/2028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (03/11/2025)</t>
+  </si>
+  <si>
+    <t>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sampel IQC :     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sampel IQC :    ☐ Serbuk        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sampel IQC :    ☐ Serbuk       ☐ Cecair       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pil       ☐ Kapsul lembut       ☐ Krim/Salap   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sampel IQC :    ☐ Serbuk       ☐ Cecair       ☐ Pil        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kapsul lembut       ☐ Krim/Salap   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sampel IQC :    ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Krim/Salap   </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +455,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +551,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -709,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -774,8 +932,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,9 +1035,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,6 +1090,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,26 +1270,6 @@
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$J$4" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$D$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$E$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$F$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$G$11" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="Form!$H$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2565,341 +2710,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>942975</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4105,6 +3915,7 @@
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
+            <a:pPr/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
@@ -4170,6 +3981,7 @@
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
+            <a:pPr/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
@@ -4222,18 +4034,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4537,23 +4349,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAE1D4E-E6D1-4EB1-B4CB-10C031C7CB3C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -4565,7 +4379,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -4576,34 +4390,40 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <f>[1]FormTitan!$B$20</f>
         <v>0</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="26"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
@@ -4622,7 +4442,7 @@
         <f>IF(B4="Gerhadt 2", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="32" t="str">
         <f>IF(E4=TRUE,"GH1","")</f>
         <v/>
       </c>
@@ -4639,9 +4459,12 @@
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="26"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
@@ -4652,15 +4475,18 @@
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="26"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>29</v>
       </c>
@@ -4671,57 +4497,75 @@
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="26"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="30">
+        <v>1123090</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="26"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="D8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="26"/>
+      <c r="D8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="D9" s="28">
+      <c r="D9" s="31">
         <v>4122020</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -4729,46 +4573,53 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="19">
         <f>[1]FormTitan!$B$22</f>
         <v>0</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="26" t="b">
-        <f>IF(B11="serbuk", TRUE)</f>
         <v>0</v>
       </c>
       <c r="E11" s="26" t="b">
@@ -4790,13 +4641,17 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="31"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="34"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -4806,11 +4661,15 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="19" t="str">
         <f>IF([1]FormTitan!B3="", "", [1]FormTitan!B3)</f>
@@ -4825,11 +4684,15 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="27">
         <f>IF([1]FormTitan!F3="", "", [1]FormTitan!F3)</f>
@@ -4844,27 +4707,37 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="31"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="34"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="19" t="str">
         <f>IF([1]FormTitan!B4="", "", [1]FormTitan!B4)</f>
@@ -4873,17 +4746,23 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="27">
         <f>IF([1]FormTitan!F4="", "", [1]FormTitan!F4)</f>
@@ -4892,54 +4771,72 @@
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="31"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="19" t="str">
         <f>IF([1]FormTitan!B5="", "", [1]FormTitan!B5)</f>
         <v/>
       </c>
       <c r="D19" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="27">
         <f>IF([1]FormTitan!F5="", "", [1]FormTitan!F5)</f>
@@ -4948,13 +4845,138 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G27" s="26" t="str">
+        <f>IF(B11="SERBUK",G15,IF(B11="CECAIR",G16,IF(B11="pil",G17,IF(B11="kapsul lembut",G18,IF(B11="krim/salap",G19,IF(B11="sila pilih",G20))))))</f>
+        <v>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5079,7 +5101,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,101 +5116,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="61">
+      <c r="B3" s="56"/>
+      <c r="C3" s="64">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="62">
+      <c r="B4" s="56"/>
+      <c r="C4" s="85">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="66" t="str">
+      <c r="B7" s="56"/>
+      <c r="C7" s="68" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5219,31 +5241,31 @@
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="58"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="53">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="58"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="43" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -5253,26 +5275,26 @@
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5292,11 +5314,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5304,38 +5326,39 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="61" t="str">
+        <f>Form!G27</f>
+        <v>Sampel IQC :     ☐ Serbuk       ☐ Cecair       ☐ Pil       ☐ Kapsul lembut       ☐ Krim/Salap</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="34" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36" t="str">
+      <c r="E20" s="38"/>
+      <c r="F20" s="39" t="str">
         <f>Form!B13</f>
         <v/>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
@@ -5345,9 +5368,9 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
       <c r="F22" s="11"/>
@@ -5355,56 +5378,56 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="73" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="41" t="s">
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="42"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="34" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36" t="str">
+      <c r="E25" s="38"/>
+      <c r="F25" s="39" t="str">
         <f>Form!B16</f>
         <v/>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
@@ -5414,9 +5437,9 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="74"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
       <c r="F27" s="11"/>
@@ -5424,56 +5447,56 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="73" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="70" t="s">
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="41" t="s">
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="42"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="34" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36" t="str">
+      <c r="E30" s="38"/>
+      <c r="F30" s="39" t="str">
         <f>Form!B19</f>
         <v/>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
@@ -5483,9 +5506,9 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="74"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
       <c r="F32" s="11"/>
@@ -5493,34 +5516,34 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="73" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="70" t="s">
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="41" t="s">
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5651,116 +5674,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId6" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId7" name="Check Box 4">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>657225</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId8" name="Check Box 5">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>942975</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId9" name="Check Box 6">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId10" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
